--- a/RAS 전처리 SAM/승수분석용 데이터/가계, 노동 미시 버전 사회계정행렬(국산) RAS 적용.xlsx
+++ b/RAS 전처리 SAM/승수분석용 데이터/가계, 노동 미시 버전 사회계정행렬(국산) RAS 적용.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/RAS 전처리 SAM/승수분석용 데이터/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35A168-742F-2B48-8474-BFF2B815777B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22320" windowHeight="14920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -120,9 +134,6 @@
     <t>고정자본형성</t>
   </si>
   <si>
-    <t>SCT 고정자본형성</t>
-  </si>
-  <si>
     <t>간접세</t>
   </si>
   <si>
@@ -148,15 +159,19 @@
     <t>총계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>SIT 고정자본형성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,7 +247,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -328,6 +343,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -363,6 +395,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,46 +587,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V9" sqref="H9:V9"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="26.5" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="7.5" bestFit="1" customWidth="1"/>
     <col min="29" max="33" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8.5" bestFit="1" customWidth="1"/>
     <col min="37" max="39" width="7.5" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,31 +727,31 @@
         <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="3" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,7 +880,7 @@
         <v>66692.468000000023</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -960,7 +1009,7 @@
         <v>6468.3620000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1089,7 +1138,7 @@
         <v>1934621.8735221</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1267,7 @@
         <v>176748.366783</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1347,7 +1396,7 @@
         <v>121254.18500000001</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1525,7 @@
         <v>275171.24600000004</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1605,7 +1654,7 @@
         <v>164675.00499999998</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1783,7 @@
         <v>188263.799</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1863,7 +1912,7 @@
         <v>119801.9317138</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1992,7 +2041,7 @@
         <v>185422.64699999997</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2170,7 @@
         <v>230695.64600000001</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2250,7 +2299,7 @@
         <v>304627.80582840001</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2379,7 +2428,7 @@
         <v>159394.38400000002</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2508,7 +2557,7 @@
         <v>132366.63299999994</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2637,7 +2686,7 @@
         <v>167750.666</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2766,7 +2815,7 @@
         <v>115642.37940960001</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2895,7 +2944,7 @@
         <v>28800.360477899994</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3024,7 +3073,7 @@
         <v>108790.19021700002</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3153,7 +3202,7 @@
         <v>37289.520286200001</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3282,7 +3331,7 @@
         <v>31972.066171599992</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3411,7 +3460,7 @@
         <v>3980.0625903999999</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3540,7 +3589,7 @@
         <v>483648.88545079506</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3669,7 +3718,7 @@
         <v>429759.87854920514</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3798,7 +3847,7 @@
         <v>780032.19400309992</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3927,7 +3976,7 @@
         <v>46640.817996900005</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -4056,7 +4105,7 @@
         <v>20164.852051745802</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -4185,7 +4234,7 @@
         <v>89879.938491701701</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -4314,7 +4363,7 @@
         <v>177745.08257295267</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -4443,7 +4492,7 @@
         <v>292908.32654043281</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -4572,7 +4621,7 @@
         <v>594688.26434316696</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -4701,7 +4750,7 @@
         <v>564695.31200000003</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -4830,7 +4879,7 @@
         <v>666125.57751297276</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -4959,9 +5008,9 @@
         <v>590232.17181662773</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -5088,9 +5137,9 @@
         <v>40175.241511300002</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -5217,9 +5266,9 @@
         <v>334993.03784090024</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -5346,9 +5395,9 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -5475,9 +5524,9 @@
         <v>96387.730160772393</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2">
         <v>680.21521632399072</v>
@@ -5604,9 +5653,9 @@
         <v>23757.156000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -5733,9 +5782,9 @@
         <v>761603.0070000001</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2">
         <v>13286.316897070719</v>
@@ -5862,9 +5911,9 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <f>SUM(B2:B41)</f>
